--- a/delta2/lib_evidence/index_v2.xlsx
+++ b/delta2/lib_evidence/index_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_evidence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53969FF-9F30-EF47-B82C-7C06A15509C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4682467-34DF-9946-BAE6-B9E0128D2B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{B9854A86-CC15-974F-9E15-44FB86363952}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="143">
   <si>
     <t>report</t>
   </si>
@@ -445,6 +445,27 @@
   </si>
   <si>
     <t>xinglocker</t>
+  </si>
+  <si>
+    <t>https://thedfirreport.com/2025/06/30/hide-your-rdp-password-spray-leads-to-ransomhub-deployment/</t>
+  </si>
+  <si>
+    <t>2025-06</t>
+  </si>
+  <si>
+    <t>https://thedfirreport.com/2025/05/19/another-confluence-bites-the-dust-falling-to-elpaco-team-ransomware/</t>
+  </si>
+  <si>
+    <t>2025-05</t>
+  </si>
+  <si>
+    <t>elpaco</t>
+  </si>
+  <si>
+    <t>https://redcanary.com/threat-detection-report/threats/impacket/</t>
+  </si>
+  <si>
+    <t>impacket</t>
   </si>
 </sst>
 </file>
@@ -584,10 +605,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C98A218-DF3C-5748-8743-8DAE26C2F1EA}" name="Table1" displayName="Table1" ref="A1:G56" totalsRowShown="0">
-  <autoFilter ref="A1:G56" xr:uid="{0C98A218-DF3C-5748-8743-8DAE26C2F1EA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F51">
-    <sortCondition ref="B1:B51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C98A218-DF3C-5748-8743-8DAE26C2F1EA}" name="Table1" displayName="Table1" ref="A1:G59" totalsRowShown="0">
+  <autoFilter ref="A1:G59" xr:uid="{0C98A218-DF3C-5748-8743-8DAE26C2F1EA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G58">
+    <sortCondition descending="1" ref="B1:B58"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E4AB7020-F0EF-D041-9F3A-541DF8CFD508}" name="report"/>
@@ -919,11 +940,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7229EA-5051-394A-8046-1983CA09ED3F}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -959,36 +980,30 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" t="s">
-        <v>118</v>
+      <c r="D2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -999,16 +1014,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -1019,16 +1034,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -1039,16 +1054,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1059,16 +1074,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>92</v>
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1079,19 +1094,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" t="s">
-        <v>112</v>
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>118</v>
@@ -1099,16 +1114,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -1119,16 +1134,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -1139,16 +1154,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -1159,16 +1174,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -1179,16 +1194,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -1199,16 +1214,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -1219,16 +1234,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -1239,38 +1254,37 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>6</v>
       </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="1"/>
       <c r="F17" t="s">
         <v>11</v>
       </c>
@@ -1280,16 +1294,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>116</v>
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1300,16 +1314,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1320,16 +1334,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1340,16 +1354,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -1360,16 +1374,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1380,16 +1394,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1400,16 +1414,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -1420,16 +1434,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1440,16 +1454,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
         <v>42</v>
       </c>
-      <c r="D26" t="s">
-        <v>10</v>
+      <c r="E26" t="s">
+        <v>116</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -1460,13 +1474,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -1478,19 +1492,20 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>68</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="1"/>
       <c r="F28" t="s">
         <v>11</v>
       </c>
@@ -1500,16 +1515,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -1520,16 +1535,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1540,16 +1555,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -1560,16 +1575,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -1580,16 +1595,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
         <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -1600,16 +1615,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -1620,16 +1635,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -1640,16 +1655,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -1660,16 +1675,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" t="s">
-        <v>96</v>
+        <v>57</v>
+      </c>
+      <c r="E37" t="s">
+        <v>92</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -1680,19 +1695,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" t="s">
-        <v>96</v>
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
+        <v>112</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="G38" t="s">
         <v>118</v>
@@ -1700,16 +1715,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
@@ -1720,16 +1735,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
@@ -1740,16 +1755,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
@@ -1760,16 +1775,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -1780,31 +1795,55 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E43" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>108</v>
+      </c>
+      <c r="F44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
         <v>93</v>
@@ -1812,23 +1851,23 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E49" t="s">
         <v>125</v>
@@ -1836,49 +1875,73 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>103</v>
+      </c>
+      <c r="E52" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>104</v>
+      </c>
+      <c r="E53" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>134</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D58" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/delta2/lib_evidence/index_v2.xlsx
+++ b/delta2/lib_evidence/index_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_evidence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4682467-34DF-9946-BAE6-B9E0128D2B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221D9EC9-9A52-AA42-B195-07DD1A6E33E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{B9854A86-CC15-974F-9E15-44FB86363952}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="140">
   <si>
     <t>report</t>
   </si>
@@ -306,12 +306,6 @@
     <t>https://thedfirreport.com/2022/10/31/follina-exploit-leads-to-domain-compromise/</t>
   </si>
   <si>
-    <t>https://thedfirreport.com/2022/01/24/cobalt-strike-a-defenders-guide-part-2/</t>
-  </si>
-  <si>
-    <t>https://thedfirreport.com/2021/08/29/cobalt-strike-a-defenders-guide/</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -339,12 +333,6 @@
     <t>https://www.unh4ck.com/detection-engineering-and-threat-hunting/lateral-movement/detecting-conti-cobaltstrike-lateral-movement-techniques-part-1#cobaltstrike-jump-psexec_psh</t>
   </si>
   <si>
-    <t>https://blog.compass-security.com/2022/05/bloodhound-inner-workings-part-1/</t>
-  </si>
-  <si>
-    <t>https://blog.compass-security.com/2022/05/bloodhound-inner-workings-part-2/</t>
-  </si>
-  <si>
     <t>https://falconforce.nl/falconfriday-detecting-active-directory-data-collection-0xff21/</t>
   </si>
   <si>
@@ -462,10 +450,13 @@
     <t>elpaco</t>
   </si>
   <si>
-    <t>https://redcanary.com/threat-detection-report/threats/impacket/</t>
-  </si>
-  <si>
-    <t>impacket</t>
+    <t>https://thedfirreport.com/2025/04/28/navigating-through-the-fog/</t>
+  </si>
+  <si>
+    <t>fog</t>
+  </si>
+  <si>
+    <t>2025-04</t>
   </si>
 </sst>
 </file>
@@ -510,27 +501,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -605,10 +576,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C98A218-DF3C-5748-8743-8DAE26C2F1EA}" name="Table1" displayName="Table1" ref="A1:G59" totalsRowShown="0">
-  <autoFilter ref="A1:G59" xr:uid="{0C98A218-DF3C-5748-8743-8DAE26C2F1EA}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G58">
-    <sortCondition descending="1" ref="B1:B58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C98A218-DF3C-5748-8743-8DAE26C2F1EA}" name="Table1" displayName="Table1" ref="A1:G55" totalsRowShown="0">
+  <autoFilter ref="A1:G55" xr:uid="{0C98A218-DF3C-5748-8743-8DAE26C2F1EA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G55">
+    <sortCondition descending="1" ref="B1:B55"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E4AB7020-F0EF-D041-9F3A-541DF8CFD508}" name="report"/>
@@ -940,11 +911,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7229EA-5051-394A-8046-1983CA09ED3F}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -969,21 +940,21 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
@@ -991,130 +962,136 @@
       <c r="D2" t="s">
         <v>68</v>
       </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -1123,178 +1100,178 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1303,285 +1280,285 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
         <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
         <v>42</v>
       </c>
-      <c r="E26" t="s">
-        <v>116</v>
+      <c r="D26" t="s">
+        <v>120</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>47</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
       </c>
       <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" t="s">
-        <v>36</v>
-      </c>
+      <c r="E29" s="1"/>
       <c r="F29" t="s">
         <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
         <v>36</v>
@@ -1590,18 +1567,18 @@
         <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
         <v>36</v>
@@ -1610,18 +1587,18 @@
         <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -1630,18 +1607,18 @@
         <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
@@ -1650,15 +1627,15 @@
         <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
@@ -1670,95 +1647,95 @@
         <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" t="s">
-        <v>92</v>
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" t="s">
-        <v>95</v>
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G39" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
@@ -1770,12 +1747,12 @@
         <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
         <v>29</v>
@@ -1790,186 +1767,161 @@
         <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
         <v>42</v>
       </c>
-      <c r="E44" t="s">
-        <v>108</v>
+      <c r="D44" t="s">
+        <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
       </c>
       <c r="E45" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
         <v>101</v>
-      </c>
-      <c r="E50" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>134</v>
-      </c>
-      <c r="D58" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A36">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:A39">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:A42">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A46">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1981,7 +1933,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
